--- a/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
+++ b/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\课设\基于stm32的麦轮避障小车设计\1. 文档日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA81E8FD-F838-4FCE-BB5C-23500476F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E3A979-FAA6-497C-AC1C-CE771D97FE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="170">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -650,6 +650,38 @@
   </si>
   <si>
     <t>OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SysTIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对射红外？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舵机？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波定时器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测速（外部中断）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,34 +964,34 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1330,8 +1362,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="D36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1377,7 @@
     <col min="7" max="7" width="41.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" style="1"/>
-    <col min="10" max="10" width="16.6640625" style="29"/>
+    <col min="10" max="10" width="16.6640625" style="23"/>
     <col min="11" max="11" width="21.5546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="37.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="36.44140625" style="1" hidden="1" customWidth="1"/>
@@ -1353,15 +1385,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1421,7 +1453,7 @@
         <v>145</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="25" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1443,7 +1475,7 @@
         <v>144</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -1463,7 +1495,7 @@
         <v>143</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="28"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1568,14 +1600,14 @@
         <v>103</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="28" t="s">
         <v>154</v>
       </c>
       <c r="K12" s="20"/>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="26" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1597,10 +1629,10 @@
         <v>104</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="25"/>
-      <c r="J13" s="30"/>
+      <c r="H13" s="26"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1620,12 +1652,12 @@
         <v>105</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="25"/>
-      <c r="J14" s="30" t="s">
+      <c r="H14" s="26"/>
+      <c r="J14" s="28" t="s">
         <v>149</v>
       </c>
       <c r="K14" s="20"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1645,10 +1677,10 @@
         <v>106</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="25"/>
-      <c r="J15" s="30"/>
+      <c r="H15" s="26"/>
+      <c r="J15" s="28"/>
       <c r="K15"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1668,14 +1700,17 @@
         <v>107</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="26" t="s">
         <v>147</v>
       </c>
+      <c r="J16" s="23" t="s">
+        <v>168</v>
+      </c>
       <c r="K16"/>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="26" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1697,10 +1732,10 @@
         <v>79</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="K17"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1722,16 +1757,16 @@
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="28" t="s">
         <v>152</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25" t="s">
+      <c r="L18" s="26"/>
+      <c r="M18" s="26" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1755,12 +1790,12 @@
       <c r="G19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="30"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="24"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1782,15 +1817,15 @@
       <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="30" t="s">
+      <c r="I20" s="27"/>
+      <c r="J20" s="28" t="s">
         <v>151</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="26" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1814,11 +1849,11 @@
       <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="30"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1861,14 +1896,14 @@
       <c r="G23" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="28" t="s">
         <v>153</v>
       </c>
       <c r="K23"/>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="26" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1894,12 +1929,12 @@
       <c r="G24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="J24" s="30"/>
+      <c r="H24" s="26"/>
+      <c r="J24" s="28"/>
       <c r="K24"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -1913,9 +1948,7 @@
       <c r="E25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:13" s="19" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1934,7 +1967,7 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
-      <c r="J26" s="31"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
@@ -1956,7 +1989,7 @@
         <v>110</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="31" t="s">
         <v>141</v>
       </c>
       <c r="K27" s="21"/>
@@ -1981,7 +2014,7 @@
         <v>111</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="25"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2004,7 +2037,7 @@
         <v>112</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="28"/>
+      <c r="H29" s="25"/>
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2027,7 +2060,7 @@
         <v>68</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="28"/>
+      <c r="H30" s="25"/>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2050,14 +2083,16 @@
         <v>113</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="26" t="s">
         <v>140</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="L31" s="25" t="s">
+      <c r="J31" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="26" t="s">
         <v>128</v>
       </c>
       <c r="M31" s="13" t="s">
@@ -2084,12 +2119,12 @@
         <v>84</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="25"/>
-      <c r="J32" s="30" t="s">
+      <c r="H32" s="26"/>
+      <c r="J32" s="28" t="s">
         <v>150</v>
       </c>
       <c r="K32" s="20"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -2111,10 +2146,10 @@
         <v>85</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="25"/>
-      <c r="J33" s="30"/>
+      <c r="H33" s="26"/>
+      <c r="J33" s="28"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="25"/>
+      <c r="L33" s="26"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -2136,13 +2171,16 @@
         <v>114</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25" t="s">
+      <c r="H34" s="26"/>
+      <c r="I34" s="26" t="s">
         <v>129</v>
       </c>
+      <c r="J34" s="28" t="s">
+        <v>166</v>
+      </c>
       <c r="K34"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25" t="s">
+      <c r="L34" s="26"/>
+      <c r="M34" s="26" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2166,11 +2204,12 @@
         <v>115</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="28"/>
       <c r="K35"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -2192,11 +2231,11 @@
       <c r="G36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="26" t="s">
         <v>135</v>
       </c>
       <c r="K36"/>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="26" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2216,9 +2255,9 @@
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="25"/>
+      <c r="H37" s="26"/>
       <c r="K37"/>
-      <c r="L37" s="25"/>
+      <c r="L37" s="26"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2236,9 +2275,9 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="25"/>
+      <c r="H38" s="26"/>
       <c r="K38"/>
-      <c r="L38" s="25"/>
+      <c r="L38" s="26"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -2260,9 +2299,9 @@
       <c r="G39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="25"/>
+      <c r="H39" s="26"/>
       <c r="K39"/>
-      <c r="L39" s="25"/>
+      <c r="L39" s="26"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -2284,20 +2323,20 @@
       <c r="G40" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="25" t="s">
+      <c r="I40" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="28" t="s">
         <v>154</v>
       </c>
       <c r="K40"/>
-      <c r="L40" s="25" t="s">
+      <c r="L40" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="M40" s="25" t="s">
+      <c r="M40" s="26" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2321,12 +2360,12 @@
       <c r="G41" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="30"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="28"/>
       <c r="K41"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -2348,13 +2387,16 @@
       <c r="G42" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25" t="s">
+      <c r="H42" s="26"/>
+      <c r="I42" s="26" t="s">
         <v>131</v>
       </c>
+      <c r="J42" s="23" t="s">
+        <v>165</v>
+      </c>
       <c r="K42"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25" t="s">
+      <c r="L42" s="26"/>
+      <c r="M42" s="26" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2378,11 +2420,14 @@
       <c r="G43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="23" t="s">
+        <v>169</v>
+      </c>
       <c r="K43"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -2406,20 +2451,20 @@
       <c r="G44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="I44" s="25" t="s">
+      <c r="I44" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J44" s="28" t="s">
         <v>161</v>
       </c>
       <c r="K44" s="13"/>
-      <c r="L44" s="25" t="s">
+      <c r="L44" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="M44" s="25" t="s">
+      <c r="M44" s="26" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2445,12 +2490,12 @@
       <c r="G45" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="30"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="28"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -2468,9 +2513,10 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="13"/>
-      <c r="L46" s="25"/>
+      <c r="L46" s="26"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
@@ -2494,10 +2540,12 @@
       <c r="G47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="J47" s="32"/>
+      <c r="H47" s="26"/>
+      <c r="J47" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="K47" s="13"/>
-      <c r="L47" s="25"/>
+      <c r="L47" s="26"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -2521,10 +2569,10 @@
       <c r="G48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="J48" s="32"/>
+      <c r="H48" s="26"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="13"/>
-      <c r="L48" s="25"/>
+      <c r="L48" s="26"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -2542,6 +2590,7 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -2560,56 +2609,40 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
+    <row r="51" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H53:K55"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L31:L35"/>
+  <mergeCells count="42">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J44:J45"/>
@@ -2626,6 +2659,32 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="H27:H30"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H53:K55"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J47:J48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
+++ b/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\课设\基于stm32的麦轮避障小车设计\1. 文档日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E3A979-FAA6-497C-AC1C-CE771D97FE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A8272F-D08D-43C8-947A-1A1D87F468D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="174">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -124,12 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">PB15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA8 </t>
-  </si>
-  <si>
-    <t>PA8</t>
   </si>
   <si>
     <t xml:space="preserve">PA9 </t>
@@ -665,23 +670,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舵机？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超声波定时器？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜂鸣？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测速（外部中断）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波测距占用了TIM4的内部计数器，4个通道均无法再作为PWM输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用PWM输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舵机PWM输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PA8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHT11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PB15 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PB14 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEEP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,29 +999,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,16 +1047,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2250141</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32721</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>195880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1064787</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>149435</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1102887</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57995</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1047,8 +1079,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12685059" y="35860"/>
-          <a:ext cx="7142857" cy="1323810"/>
+          <a:off x="15006021" y="1163620"/>
+          <a:ext cx="7120446" cy="1325155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1362,8 +1394,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1385,37 +1417,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="A1" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1423,14 +1455,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1440,21 +1472,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="25" t="s">
-        <v>146</v>
+      <c r="H4" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,40 +1497,46 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="31"/>
+      <c r="J5" s="23" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="31"/>
+      <c r="J6" s="23" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1553,14 +1594,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1570,14 +1611,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1597,18 +1638,18 @@
         <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>154</v>
+      <c r="H12" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="K12" s="20"/>
-      <c r="L12" s="26" t="s">
-        <v>137</v>
+      <c r="L12" s="28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,41 +1664,41 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="26"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="26"/>
-      <c r="J14" s="28" t="s">
-        <v>149</v>
+      <c r="H14" s="28"/>
+      <c r="J14" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="K14" s="20"/>
-      <c r="L14" s="26"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1674,13 +1715,13 @@
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="26"/>
-      <c r="J15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="J15" s="27"/>
       <c r="K15"/>
-      <c r="L15" s="26"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1697,21 +1738,18 @@
         <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>168</v>
+      <c r="H16" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="K16"/>
-      <c r="L16" s="26" t="s">
-        <v>130</v>
+      <c r="L16" s="28" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1729,13 +1767,13 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="K17"/>
-      <c r="L17" s="26"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1752,22 +1790,22 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>152</v>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26" t="s">
-        <v>131</v>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,17 +1823,17 @@
         <v>19</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="29"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1812,21 +1850,21 @@
         <v>20</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28" t="s">
-        <v>151</v>
+      <c r="H20" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="27" t="s">
+        <v>149</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="26" t="s">
-        <v>125</v>
+      <c r="L20" s="28" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,16 +1882,16 @@
         <v>22</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="26"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1891,20 +1929,20 @@
         <v>26</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>151</v>
       </c>
       <c r="K23"/>
-      <c r="L23" s="26" t="s">
-        <v>126</v>
+      <c r="L23" s="28" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,29 +1962,29 @@
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="J24" s="28"/>
+        <v>122</v>
+      </c>
+      <c r="H24" s="28"/>
+      <c r="J24" s="27"/>
       <c r="K24"/>
-      <c r="L24" s="26"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="5"/>
@@ -1956,14 +1994,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -1986,11 +2024,11 @@
         <v>29</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="31" t="s">
-        <v>141</v>
+      <c r="H27" s="30" t="s">
+        <v>139</v>
       </c>
       <c r="K27" s="21"/>
     </row>
@@ -2011,10 +2049,10 @@
         <v>30</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="31"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2031,13 +2069,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="31"/>
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="31"/>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,7 +2106,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>0</v>
@@ -2077,26 +2115,26 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="26" t="s">
-        <v>140</v>
+      <c r="H31" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>128</v>
+        <v>166</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2104,7 +2142,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>0</v>
@@ -2113,25 +2151,25 @@
         <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="26"/>
-      <c r="J32" s="28" t="s">
-        <v>150</v>
+      <c r="H32" s="28"/>
+      <c r="J32" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="K32" s="20"/>
-      <c r="L32" s="26"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>0</v>
@@ -2140,23 +2178,23 @@
         <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="26"/>
-      <c r="J33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="26"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>0</v>
@@ -2165,23 +2203,23 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J34" s="28" t="s">
-        <v>166</v>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="K34"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26" t="s">
-        <v>129</v>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,7 +2227,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>0</v>
@@ -2198,25 +2236,25 @@
         <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="25"/>
       <c r="K35"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>0</v>
@@ -2225,18 +2263,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>135</v>
+        <v>40</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="K36"/>
-      <c r="L36" s="26" t="s">
-        <v>135</v>
+      <c r="L36" s="28" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2244,47 +2282,47 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="28"/>
       <c r="K37"/>
-      <c r="L37" s="26"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="28"/>
       <c r="K38"/>
-      <c r="L38" s="26"/>
+      <c r="L38" s="28"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>0</v>
@@ -2293,22 +2331,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="H39" s="28"/>
       <c r="K39"/>
-      <c r="L39" s="26"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>0</v>
@@ -2317,27 +2355,27 @@
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="J40" s="28" t="s">
-        <v>154</v>
+      <c r="J40" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="K40"/>
-      <c r="L40" s="26" t="s">
+      <c r="L40" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="M40" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="M40" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,7 +2383,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>0</v>
@@ -2354,25 +2392,25 @@
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="28"/>
+        <v>115</v>
+      </c>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="27"/>
       <c r="K41"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>0</v>
@@ -2381,23 +2419,20 @@
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" s="23" t="s">
-        <v>165</v>
+        <v>116</v>
+      </c>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="K42"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26" t="s">
-        <v>131</v>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,36 +2440,36 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K43"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>0</v>
@@ -2443,29 +2478,31 @@
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="M44" s="26" t="s">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2473,7 +2510,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>0</v>
@@ -2482,48 +2519,48 @@
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
+        <v>153</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="26"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="26"/>
+      <c r="H46" s="28"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>0</v>
@@ -2532,27 +2569,27 @@
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="26"/>
-      <c r="J47" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="26"/>
+      <c r="H47" s="28"/>
+      <c r="J47" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="K47" s="33"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>0</v>
@@ -2561,88 +2598,114 @@
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="26"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="26"/>
+      <c r="H48" s="28"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="J49" s="32"/>
+      <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H51" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J51" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H53:K55"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K44:K48"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L31:L35"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J44:J45"/>
@@ -2659,32 +2722,6 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="H27:H30"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L31:L35"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H53:K55"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J47:J48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
+++ b/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\课设\基于stm32的麦轮避障小车设计\1. 文档日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A8272F-D08D-43C8-947A-1A1D87F468D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC1351-DF39-460F-B68F-5176D39F721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="172">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -164,13 +164,7 @@
     <t xml:space="preserve">PA14 </t>
   </si>
   <si>
-    <t>PA14</t>
-  </si>
-  <si>
     <t xml:space="preserve">JTDI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB4 </t>
   </si>
   <si>
     <t xml:space="preserve">NJTRST </t>
@@ -658,22 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超声波？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SysTIM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对射红外？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测速（外部中断）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超声波测距占用了TIM4的内部计数器，4个通道均无法再作为PWM输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,6 +689,22 @@
   </si>
   <si>
     <t>BEEP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PB4 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对射红外（外部中断）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,29 +996,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,8 +1391,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53:K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1417,37 +1414,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,14 +1452,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1472,24 +1469,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="31" t="s">
-        <v>144</v>
+      <c r="H4" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,22 +1494,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="31"/>
+      <c r="H5" s="26"/>
       <c r="J5" s="23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,22 +1517,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="31"/>
+      <c r="H6" s="26"/>
       <c r="J6" s="23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1594,14 +1591,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1611,14 +1608,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1638,18 +1635,18 @@
         <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>152</v>
+      <c r="H12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="K12" s="20"/>
-      <c r="L12" s="28" t="s">
-        <v>135</v>
+      <c r="L12" s="27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,41 +1661,41 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="28"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="28"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="28"/>
-      <c r="J14" s="27" t="s">
-        <v>147</v>
+      <c r="H14" s="27"/>
+      <c r="J14" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="K14" s="20"/>
-      <c r="L14" s="28"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1715,13 +1712,13 @@
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="28"/>
-      <c r="J15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="J15" s="29"/>
       <c r="K15"/>
-      <c r="L15" s="28"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1738,18 +1735,18 @@
         <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>145</v>
+      <c r="H16" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="K16"/>
-      <c r="L16" s="28" t="s">
-        <v>128</v>
+      <c r="L16" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,13 +1764,13 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="K17"/>
-      <c r="L17" s="28"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1790,22 +1787,22 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>150</v>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>148</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28" t="s">
-        <v>129</v>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,17 +1820,17 @@
         <v>19</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="32"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1850,21 +1847,21 @@
         <v>20</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="27" t="s">
-        <v>149</v>
+      <c r="H20" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="28" t="s">
-        <v>123</v>
+      <c r="L20" s="27" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,16 +1879,16 @@
         <v>22</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1929,20 +1926,20 @@
         <v>26</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="K23"/>
-      <c r="L23" s="28" t="s">
-        <v>124</v>
+      <c r="L23" s="27" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1962,29 +1959,29 @@
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="J24" s="27"/>
+        <v>120</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="J24" s="29"/>
       <c r="K24"/>
-      <c r="L24" s="28"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="5"/>
@@ -1994,14 +1991,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -2024,11 +2021,11 @@
         <v>29</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="30" t="s">
-        <v>139</v>
+      <c r="H27" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="K27" s="21"/>
     </row>
@@ -2049,10 +2046,10 @@
         <v>30</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="31"/>
+      <c r="H28" s="26"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2069,13 +2066,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="31"/>
+      <c r="H29" s="26"/>
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2092,13 +2089,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="31"/>
+      <c r="H30" s="26"/>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2106,7 +2103,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>0</v>
@@ -2115,26 +2112,26 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="28" t="s">
-        <v>138</v>
+      <c r="H31" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>126</v>
+        <v>160</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,15 +2151,15 @@
         <v>33</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="28"/>
-      <c r="J32" s="27" t="s">
-        <v>148</v>
+      <c r="H32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="K32" s="20"/>
-      <c r="L32" s="28"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -2181,13 +2178,13 @@
         <v>34</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="28"/>
-      <c r="J33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="28"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -2206,20 +2203,20 @@
         <v>36</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28" t="s">
-        <v>127</v>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K34"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28" t="s">
-        <v>127</v>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2239,15 +2236,15 @@
         <v>38</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="25"/>
       <c r="K35"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -2263,18 +2260,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="28" t="s">
-        <v>133</v>
+      <c r="H36" s="27" t="s">
+        <v>131</v>
       </c>
       <c r="K36"/>
-      <c r="L36" s="28" t="s">
-        <v>133</v>
+      <c r="L36" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2282,40 +2279,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="27"/>
       <c r="K37"/>
-      <c r="L37" s="28"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="27"/>
       <c r="K38"/>
-      <c r="L38" s="28"/>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -2331,22 +2328,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="28"/>
+        <v>168</v>
+      </c>
+      <c r="H39" s="27"/>
       <c r="K39"/>
-      <c r="L39" s="28"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>0</v>
@@ -2355,27 +2352,27 @@
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="I40" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>152</v>
+      <c r="J40" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="K40"/>
-      <c r="L40" s="28" t="s">
+      <c r="L40" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M40" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="M40" s="28" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2383,7 +2380,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>0</v>
@@ -2392,25 +2389,25 @@
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="27"/>
+        <v>113</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29"/>
       <c r="K41"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>0</v>
@@ -2419,20 +2416,23 @@
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="K42"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28" t="s">
-        <v>129</v>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,36 +2440,33 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="23" t="s">
-        <v>163</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="K43"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>0</v>
@@ -2478,31 +2475,31 @@
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="L44" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="M44" s="28" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2507,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>0</v>
@@ -2519,48 +2516,48 @@
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
+        <v>151</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="28"/>
+      <c r="H46" s="27"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="28"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="27"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>0</v>
@@ -2569,27 +2566,27 @@
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="28"/>
-      <c r="J47" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="28"/>
+      <c r="H47" s="27"/>
+      <c r="J47" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="K47" s="30"/>
+      <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>0</v>
@@ -2598,32 +2595,32 @@
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="28"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="28"/>
+      <c r="H48" s="27"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="27"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2634,78 +2631,44 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J51" s="23" t="s">
-        <v>162</v>
-      </c>
-    </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H53:K55"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K44:K48"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L31:L35"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J44:J45"/>
@@ -2722,6 +2685,32 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="H27:H30"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H53:K55"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K44:K48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
+++ b/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\课设\基于stm32的麦轮避障小车设计\1. 文档日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEC1351-DF39-460F-B68F-5176D39F721E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D5BD9-4FF8-42A4-98CB-64EF83B06D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="173">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -705,6 +705,10 @@
   </si>
   <si>
     <t>对射红外（外部中断）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼具1s定时中断功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -996,32 +1000,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1391,8 +1392,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53:K55"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1414,15 +1415,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1482,7 +1483,7 @@
         <v>141</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="31" t="s">
         <v>142</v>
       </c>
       <c r="J4" s="23" t="s">
@@ -1507,7 +1508,7 @@
         <v>140</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="31"/>
       <c r="J5" s="23" t="s">
         <v>167</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>139</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="31"/>
       <c r="J6" s="23" t="s">
         <v>163</v>
       </c>
@@ -1638,14 +1639,12 @@
         <v>99</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="J12" s="29" t="s">
-        <v>150</v>
-      </c>
+      <c r="J12" s="27"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="28" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1667,10 +1666,10 @@
         <v>100</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="27"/>
-      <c r="J13" s="29"/>
+      <c r="H13" s="28"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="27"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -1690,12 +1689,12 @@
         <v>101</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="27"/>
-      <c r="J14" s="29" t="s">
+      <c r="H14" s="28"/>
+      <c r="J14" s="27" t="s">
         <v>145</v>
       </c>
       <c r="K14" s="20"/>
-      <c r="L14" s="27"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1715,10 +1714,10 @@
         <v>102</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="27"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="28"/>
+      <c r="J15" s="27"/>
       <c r="K15"/>
-      <c r="L15" s="27"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1738,14 +1737,14 @@
         <v>103</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="28" t="s">
         <v>143</v>
       </c>
       <c r="K16"/>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="28" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1767,10 +1766,10 @@
         <v>75</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="K17"/>
-      <c r="L17" s="27"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1792,16 +1791,16 @@
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="27" t="s">
         <v>148</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
+      <c r="L18" s="28"/>
+      <c r="M18" s="28" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1825,12 +1824,12 @@
       <c r="G19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1852,15 +1851,15 @@
       <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29" t="s">
+      <c r="I20" s="29"/>
+      <c r="J20" s="27" t="s">
         <v>147</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="28" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1884,11 +1883,11 @@
       <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1931,14 +1930,14 @@
       <c r="G23" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="27" t="s">
         <v>149</v>
       </c>
       <c r="K23"/>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="28" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1964,10 +1963,10 @@
       <c r="G24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="J24" s="29"/>
+      <c r="H24" s="28"/>
+      <c r="J24" s="27"/>
       <c r="K24"/>
-      <c r="L24" s="27"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -2024,7 +2023,7 @@
         <v>106</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="30" t="s">
         <v>137</v>
       </c>
       <c r="K27" s="21"/>
@@ -2049,7 +2048,7 @@
         <v>107</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="26"/>
+      <c r="H28" s="31"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2072,7 +2071,7 @@
         <v>108</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="26"/>
+      <c r="H29" s="31"/>
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2095,7 +2094,7 @@
         <v>64</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="26"/>
+      <c r="H30" s="31"/>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2118,7 +2117,7 @@
         <v>109</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="28" t="s">
         <v>136</v>
       </c>
       <c r="I31" s="13" t="s">
@@ -2127,7 +2126,10 @@
       <c r="J31" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="L31" s="27" t="s">
+      <c r="K31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="28" t="s">
         <v>124</v>
       </c>
       <c r="M31" s="13" t="s">
@@ -2154,12 +2156,12 @@
         <v>80</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="27"/>
-      <c r="J32" s="29" t="s">
+      <c r="H32" s="28"/>
+      <c r="J32" s="27" t="s">
         <v>146</v>
       </c>
       <c r="K32" s="20"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -2181,10 +2183,10 @@
         <v>81</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="27"/>
-      <c r="J33" s="29"/>
+      <c r="H33" s="28"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="27"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -2206,16 +2208,16 @@
         <v>110</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27" t="s">
+      <c r="H34" s="28"/>
+      <c r="I34" s="28" t="s">
         <v>125</v>
       </c>
       <c r="J34" s="23" t="s">
         <v>159</v>
       </c>
       <c r="K34"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
+      <c r="L34" s="28"/>
+      <c r="M34" s="28" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2239,12 +2241,12 @@
         <v>111</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="25"/>
       <c r="K35"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -2266,11 +2268,11 @@
       <c r="G36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="28" t="s">
         <v>131</v>
       </c>
       <c r="K36"/>
-      <c r="L36" s="27" t="s">
+      <c r="L36" s="28" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2290,9 +2292,9 @@
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="K37"/>
-      <c r="L37" s="27"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2310,9 +2312,9 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="K38"/>
-      <c r="L38" s="27"/>
+      <c r="L38" s="28"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -2334,9 +2336,9 @@
       <c r="G39" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H39" s="27"/>
+      <c r="H39" s="28"/>
       <c r="K39"/>
-      <c r="L39" s="27"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
@@ -2358,20 +2360,20 @@
       <c r="G40" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="27" t="s">
         <v>150</v>
       </c>
       <c r="K40"/>
-      <c r="L40" s="27" t="s">
+      <c r="L40" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="M40" s="27" t="s">
+      <c r="M40" s="28" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2395,12 +2397,12 @@
       <c r="G41" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="29"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="27"/>
       <c r="K41"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
@@ -2422,16 +2424,16 @@
       <c r="G42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27" t="s">
+      <c r="H42" s="28"/>
+      <c r="I42" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="34" t="s">
+      <c r="J42" s="25" t="s">
         <v>171</v>
       </c>
       <c r="K42"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27" t="s">
+      <c r="L42" s="28"/>
+      <c r="M42" s="28" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2455,11 +2457,11 @@
       <c r="G43" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
       <c r="K43"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -2483,22 +2485,22 @@
       <c r="G44" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="J44" s="29" t="s">
+      <c r="J44" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="K44" s="30" t="s">
+      <c r="K44" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="L44" s="27" t="s">
+      <c r="L44" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="M44" s="27" t="s">
+      <c r="M44" s="28" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2524,12 +2526,12 @@
       <c r="G45" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -2547,10 +2549,10 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="28"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="27"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
@@ -2574,12 +2576,12 @@
       <c r="G47" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="J47" s="29" t="s">
+      <c r="H47" s="28"/>
+      <c r="J47" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="27"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -2603,10 +2605,10 @@
       <c r="G48" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -2644,31 +2646,57 @@
       <c r="G50" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H53:K55"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K44:K48"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L31:L35"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J44:J45"/>
@@ -2685,32 +2713,6 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="H27:H30"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L31:L35"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H53:K55"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K44:K48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
+++ b/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\课设\基于stm32的麦轮避障小车设计\1. 文档日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D5BD9-4FF8-42A4-98CB-64EF83B06D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CD0A61-4A00-4493-98D3-DF6A0594A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="174">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">PA14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JTDI </t>
   </si>
   <si>
     <t xml:space="preserve">NJTRST </t>
@@ -709,6 +706,14 @@
   </si>
   <si>
     <t>兼具1s定时中断功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JTDI </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝牙串口3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +825,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,6 +847,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,29 +1011,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1415,37 +1429,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1453,14 +1467,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1470,24 +1484,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="J4" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1495,22 +1509,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="31"/>
+      <c r="H5" s="26"/>
       <c r="J5" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1518,22 +1532,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="31"/>
+      <c r="H6" s="26"/>
       <c r="J6" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,14 +1606,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1609,14 +1623,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1636,16 +1650,18 @@
         <v>12</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="28" t="s">
-        <v>133</v>
+      <c r="H12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,41 +1676,43 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="28"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="28"/>
+      <c r="H13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="28"/>
-      <c r="J14" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="28"/>
+      <c r="H14" s="27"/>
+      <c r="J14" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1711,13 +1729,13 @@
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="28"/>
-      <c r="J15" s="27"/>
-      <c r="K15"/>
-      <c r="L15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1734,18 +1752,18 @@
         <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>143</v>
+      <c r="H16" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="K16"/>
-      <c r="L16" s="28" t="s">
-        <v>126</v>
+      <c r="L16" s="27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
       <c r="K17"/>
-      <c r="L17" s="28"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1786,22 +1804,22 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>148</v>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>147</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28" t="s">
-        <v>127</v>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1819,17 +1837,17 @@
         <v>19</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="27"/>
+        <v>116</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="32"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1846,21 +1864,21 @@
         <v>20</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="27" t="s">
-        <v>147</v>
+      <c r="H20" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="28" t="s">
-        <v>121</v>
+      <c r="L20" s="27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,16 +1896,16 @@
         <v>22</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1925,20 +1943,22 @@
         <v>26</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23" s="28" t="s">
-        <v>122</v>
+        <v>151</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,29 +1978,29 @@
         <v>27</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="28"/>
-      <c r="J24" s="27"/>
-      <c r="K24"/>
-      <c r="L24" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="5"/>
@@ -1990,14 +2010,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -2020,11 +2040,11 @@
         <v>29</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="30" t="s">
-        <v>137</v>
+      <c r="H27" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="K27" s="21"/>
     </row>
@@ -2045,10 +2065,10 @@
         <v>30</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="31"/>
+      <c r="H28" s="26"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2065,13 +2085,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="31"/>
+      <c r="H29" s="26"/>
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2088,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="31"/>
+      <c r="H30" s="26"/>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,7 +2122,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>0</v>
@@ -2111,29 +2131,29 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="28" t="s">
-        <v>136</v>
+      <c r="H31" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="I31" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L31" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>124</v>
-      </c>
       <c r="M31" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,15 +2173,15 @@
         <v>33</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="28"/>
-      <c r="J32" s="27" t="s">
-        <v>146</v>
+      <c r="H32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>145</v>
       </c>
       <c r="K32" s="20"/>
-      <c r="L32" s="28"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -2180,13 +2200,13 @@
         <v>34</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="28"/>
-      <c r="J33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="28"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -2205,20 +2225,20 @@
         <v>36</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28" t="s">
-        <v>125</v>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K34"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28" t="s">
-        <v>125</v>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,15 +2258,15 @@
         <v>38</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="25"/>
       <c r="K35"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -2262,18 +2282,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="28" t="s">
-        <v>131</v>
+      <c r="H36" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="K36"/>
-      <c r="L36" s="28" t="s">
-        <v>131</v>
+      <c r="L36" s="27" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,40 +2301,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="27"/>
       <c r="K37"/>
-      <c r="L37" s="28"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="27"/>
       <c r="K38"/>
-      <c r="L38" s="28"/>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -2330,22 +2350,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" s="28"/>
+        <v>167</v>
+      </c>
+      <c r="H39" s="27"/>
       <c r="K39"/>
-      <c r="L39" s="28"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>0</v>
@@ -2354,27 +2374,27 @@
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>150</v>
+        <v>111</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>149</v>
       </c>
       <c r="K40"/>
-      <c r="L40" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="M40" s="28" t="s">
-        <v>132</v>
+      <c r="L40" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,7 +2402,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>0</v>
@@ -2391,25 +2411,25 @@
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="27"/>
+        <v>112</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29"/>
       <c r="K41"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>0</v>
@@ -2418,23 +2438,23 @@
         <v>1</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27" t="s">
+        <v>126</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K42"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28" t="s">
-        <v>127</v>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,33 +2462,33 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+        <v>114</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
       <c r="K43"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>0</v>
@@ -2477,31 +2497,31 @@
         <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="I44" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="K44" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="L44" s="28" t="s">
+      <c r="L44" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M44" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="M44" s="28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,7 +2529,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>0</v>
@@ -2518,48 +2538,48 @@
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
+        <v>150</v>
+      </c>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="28"/>
+      <c r="H46" s="27"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="28"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="27"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>0</v>
@@ -2568,27 +2588,27 @@
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="28"/>
-      <c r="J47" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="28"/>
+        <v>66</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="J47" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="K47" s="30"/>
+      <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>0</v>
@@ -2597,32 +2617,32 @@
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H48" s="28"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="27"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -2633,70 +2653,44 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H53:K55"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K44:K48"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="L31:L35"/>
+  <mergeCells count="45">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="J44:J45"/>
@@ -2713,6 +2707,35 @@
     <mergeCell ref="I40:I41"/>
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="H27:H30"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H53:K55"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K44:K48"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K12:K13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
+++ b/1. 文档日志/【引脚配置】STM32F103C8T6引脚定义 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\JESON\Desktop\课设\基于stm32的麦轮避障小车设计\1. 文档日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CD0A61-4A00-4493-98D3-DF6A0594A1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F454409F-6120-4F86-995C-409B9AC7ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D862D2F7-4BB5-4946-9DE3-EE852D9A2767}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="174">
   <si>
     <t xml:space="preserve">I/O </t>
   </si>
@@ -597,10 +597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝牙串口2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>printf调试串口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,6 +710,10 @@
   </si>
   <si>
     <t>蓝牙串口3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英版DS0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,29 +1011,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1406,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:I21"/>
+    <sheetView tabSelected="1" topLeftCell="D27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1429,15 +1429,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1497,11 +1497,11 @@
         <v>140</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="31" t="s">
         <v>141</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,9 +1522,9 @@
         <v>139</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="31"/>
       <c r="J5" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1545,9 +1545,9 @@
         <v>138</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="31"/>
       <c r="J6" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1653,14 +1653,13 @@
         <v>98</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" s="27" t="s">
+      <c r="J12" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" s="28" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1676,43 +1675,39 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="J13" s="34"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="27"/>
-      <c r="J14" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="J14" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1732,10 +1727,9 @@
         <v>101</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="27"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="J15" s="34"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -1755,14 +1749,14 @@
         <v>102</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="28" t="s">
         <v>142</v>
       </c>
       <c r="K16"/>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="28" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1784,10 +1778,10 @@
         <v>74</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="K17"/>
-      <c r="L17" s="27"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -1809,16 +1803,16 @@
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="J18" s="29" t="s">
-        <v>147</v>
+      <c r="J18" s="34" t="s">
+        <v>146</v>
       </c>
       <c r="K18" s="20"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
+      <c r="L18" s="28"/>
+      <c r="M18" s="28" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1842,12 +1836,12 @@
       <c r="G19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1869,15 +1863,15 @@
       <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29" t="s">
-        <v>146</v>
+      <c r="I20" s="29"/>
+      <c r="J20" s="34" t="s">
+        <v>145</v>
       </c>
       <c r="K20" s="20"/>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="28" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1901,11 +1895,11 @@
       <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1946,18 +1940,15 @@
         <v>61</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="L23" s="27" t="s">
+      <c r="J23" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="28" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1983,10 +1974,9 @@
       <c r="G24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="J24" s="34"/>
+      <c r="L24" s="28"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -2043,7 +2033,7 @@
         <v>105</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="30" t="s">
         <v>136</v>
       </c>
       <c r="K27" s="21"/>
@@ -2068,7 +2058,7 @@
         <v>106</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="26"/>
+      <c r="H28" s="31"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,13 +2075,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="26"/>
+      <c r="H29" s="31"/>
       <c r="K29" s="22"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2108,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>63</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="26"/>
+      <c r="H30" s="31"/>
       <c r="K30" s="22"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,7 +2112,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>0</v>
@@ -2131,25 +2121,25 @@
         <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>108</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="28" t="s">
         <v>135</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>122</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L31" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="28" t="s">
         <v>123</v>
       </c>
       <c r="M31" s="13" t="s">
@@ -2176,12 +2166,12 @@
         <v>79</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>145</v>
+      <c r="H32" s="28"/>
+      <c r="J32" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="K32" s="20"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -2203,10 +2193,10 @@
         <v>80</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="27"/>
-      <c r="J33" s="29"/>
+      <c r="H33" s="28"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="27"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -2228,16 +2218,16 @@
         <v>109</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27" t="s">
+      <c r="H34" s="28"/>
+      <c r="I34" s="28" t="s">
         <v>124</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K34"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
+      <c r="L34" s="28"/>
+      <c r="M34" s="28" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2261,12 +2251,12 @@
         <v>110</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
       <c r="J35" s="25"/>
       <c r="K35"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -2288,11 +2278,11 @@
       <c r="G36" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="27" t="s">
+      <c r="H36" s="28" t="s">
         <v>130</v>
       </c>
       <c r="K36"/>
-      <c r="L36" s="27" t="s">
+      <c r="L36" s="28" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2312,9 +2302,9 @@
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="K37"/>
-      <c r="L37" s="27"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -2332,9 +2322,9 @@
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="27"/>
+      <c r="H38" s="28"/>
       <c r="K38"/>
-      <c r="L38" s="27"/>
+      <c r="L38" s="28"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -2354,18 +2344,18 @@
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H39" s="27"/>
+        <v>166</v>
+      </c>
+      <c r="H39" s="28"/>
       <c r="K39"/>
-      <c r="L39" s="27"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>0</v>
@@ -2374,26 +2364,24 @@
         <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="29" t="s">
-        <v>149</v>
-      </c>
+      <c r="J40" s="27"/>
       <c r="K40"/>
-      <c r="L40" s="27" t="s">
+      <c r="L40" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="M40" s="27" t="s">
+      <c r="M40" s="28" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2402,7 +2390,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>0</v>
@@ -2417,19 +2405,19 @@
       <c r="G41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="29"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="27"/>
       <c r="K41"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>40</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>0</v>
@@ -2444,16 +2432,16 @@
       <c r="G42" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27" t="s">
+      <c r="H42" s="28"/>
+      <c r="I42" s="28" t="s">
         <v>126</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K42"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27" t="s">
+      <c r="L42" s="28"/>
+      <c r="M42" s="28" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2477,11 +2465,13 @@
       <c r="G43" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="K43"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="K43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
@@ -2505,22 +2495,22 @@
       <c r="G44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="J44" s="29" t="s">
+      <c r="J44" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="K44" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="L44" s="27" t="s">
+      <c r="L44" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="M44" s="27" t="s">
+      <c r="M44" s="28" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2544,14 +2534,14 @@
         <v>86</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
+        <v>149</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -2569,10 +2559,10 @@
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="27"/>
+      <c r="H46" s="28"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="27"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
@@ -2596,12 +2586,12 @@
       <c r="G47" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="J47" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="J47" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="K47" s="33"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
@@ -2625,10 +2615,10 @@
       <c r="G48" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -2666,47 +2656,46 @@
       <c r="G50" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
     </row>
     <row r="53" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="42">
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H53:K55"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K44:K48"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H31:H35"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="H27:H30"/>
     <mergeCell ref="L12:L15"/>
     <mergeCell ref="M34:M35"/>
     <mergeCell ref="L16:L19"/>
@@ -2720,22 +2709,20 @@
     <mergeCell ref="L20:L21"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="L31:L35"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H53:K55"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K44:K48"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="H27:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
